--- a/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
+++ b/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -62,35 +62,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${deltas}" var="delta"&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;/jt:forEach&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${delta.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${delta.before}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${delta.after}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${delta.create}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${delta.update}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${delta.delete}</t>
+    <t>&lt;jt:forEach items="${deltas}" var="d"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.before}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.after}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.create}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.update}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${d.delete}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${delta.details}" var="detail"&gt;&lt;jt:forEach items="${detail}" var="item" copyRight="true"&gt;&lt;jt:style style="${item.style}"&gt;${item.text}&lt;/jt:style&gt;&lt;/jt:forEach&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -506,7 +512,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -527,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -539,12 +545,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
+++ b/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -547,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
+++ b/evidb-diff/src/main/resources/org/netf/evidb/diff/template/report.xlsx
@@ -168,12 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -480,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -545,19 +546,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
